--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
@@ -370,7 +370,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -526,7 +526,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -536,8 +536,10 @@
           <t>Last week Nights</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -546,8 +548,10 @@
           <t>Saturdays</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
@@ -591,7 +595,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -601,8 +605,10 @@
           <t>Last week Nights</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -611,8 +617,10 @@
           <t>Saturdays</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>3</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
@@ -656,7 +664,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -666,8 +674,10 @@
           <t>Last week Nights</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -676,8 +686,10 @@
           <t>Saturdays</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>0</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
@@ -721,7 +733,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -731,8 +743,10 @@
           <t>Last week Nights</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>3</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -741,8 +755,10 @@
           <t>Saturdays</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>0</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
@@ -786,7 +802,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -796,8 +812,10 @@
           <t>Last week Nights</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>0</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -806,8 +824,10 @@
           <t>Saturdays</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
@@ -851,7 +871,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -861,8 +881,10 @@
           <t>Last week Nights</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>1</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -871,8 +893,10 @@
           <t>Saturdays</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
@@ -916,7 +940,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -926,8 +950,10 @@
           <t>Last week Nights</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>0</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -936,8 +962,10 @@
           <t>Saturdays</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>1</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
@@ -981,7 +1009,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -991,8 +1019,10 @@
           <t>Last week Nights</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1001,8 +1031,10 @@
           <t>Saturdays</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>1</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
@@ -1021,6 +1053,72 @@
       </c>
       <c r="B54" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>אייל</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>11</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Number of shifts</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Last week Nights</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Saturdays</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Saturdays before</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Incharge</t>
+        </is>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
